--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3029.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3029.xlsx
@@ -354,7 +354,7 @@
         <v>1.710579396752511</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.853702254487609</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3029.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3029.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.157784723960762</v>
+        <v>1.182620048522949</v>
       </c>
       <c r="B1">
-        <v>1.710579396752511</v>
+        <v>1.752654075622559</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.944647789001465</v>
       </c>
       <c r="D1">
-        <v>1.853702254487609</v>
+        <v>1.624099731445312</v>
       </c>
       <c r="E1">
-        <v>1.206464222995412</v>
+        <v>0.9471976757049561</v>
       </c>
     </row>
   </sheetData>
